--- a/Results/xlsx/RS230002BOS01.xlsx
+++ b/Results/xlsx/RS230002BOS01.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">       1782</t>
+          <t xml:space="preserve">       5762</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -506,19 +506,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.15                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-15</t>
+          <t xml:space="preserve">      2021-02-28</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">       1783</t>
+          <t xml:space="preserve">       5763</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -553,19 +553,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.15                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.28                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-15</t>
+          <t xml:space="preserve">      2021-02-28</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5227</t>
+          <t xml:space="preserve">       5803</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -600,19 +600,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.23                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.03.01                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-23</t>
+          <t xml:space="preserve">      2021-03-01</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5228</t>
+          <t xml:space="preserve">       5804</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -647,19 +647,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.23                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-23</t>
+          <t xml:space="preserve">      2021-03-01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5335</t>
+          <t xml:space="preserve">       5853</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -694,19 +694,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.24                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.03.01                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-24</t>
+          <t xml:space="preserve">      2021-03-01</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5336</t>
+          <t xml:space="preserve">       5854</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -741,19 +741,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.24                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-24</t>
+          <t xml:space="preserve">      2021-03-01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5388</t>
+          <t xml:space="preserve">       1782</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -788,19 +788,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.24                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.15                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-24</t>
+          <t xml:space="preserve">      2021-02-15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5389</t>
+          <t xml:space="preserve">       1783</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -835,19 +835,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.24                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.15                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-24</t>
+          <t xml:space="preserve">      2021-02-15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">       2782</t>
+          <t xml:space="preserve">       5227</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -882,19 +882,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.16                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.23                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-16</t>
+          <t xml:space="preserve">      2021-02-23</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">       2783</t>
+          <t xml:space="preserve">       5228</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -929,19 +929,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.16                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.23                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-16</t>
+          <t xml:space="preserve">      2021-02-23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">       2901</t>
+          <t xml:space="preserve">       5335</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -976,19 +976,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.16                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.24                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-16</t>
+          <t xml:space="preserve">      2021-02-24</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">       2902</t>
+          <t xml:space="preserve">       5336</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1023,19 +1023,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.16                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.24                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-16</t>
+          <t xml:space="preserve">      2021-02-24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">       2981</t>
+          <t xml:space="preserve">       5388</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1070,19 +1070,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.17                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.24                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-17</t>
+          <t xml:space="preserve">      2021-02-24</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">       2982</t>
+          <t xml:space="preserve">       5389</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.24                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-17</t>
+          <t xml:space="preserve">      2021-02-24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3113</t>
+          <t xml:space="preserve">       5523</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1164,19 +1164,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.17                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.26                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-17</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3114</t>
+          <t xml:space="preserve">       5524</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1211,19 +1211,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-17</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3193</t>
+          <t xml:space="preserve">       5429</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1258,19 +1258,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.18                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.25                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-18</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3194</t>
+          <t xml:space="preserve">       5430</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1305,19 +1305,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-18</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3325</t>
+          <t xml:space="preserve">       5482</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1352,19 +1352,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.18                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.25                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-18</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3326</t>
+          <t xml:space="preserve">       5483</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1399,19 +1399,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-18</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">       1512</t>
+          <t xml:space="preserve">       5576</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1446,19 +1446,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.12                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.26                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-12</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">       1513</t>
+          <t xml:space="preserve">       5577</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1493,19 +1493,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.12                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-12</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">       1633</t>
+          <t xml:space="preserve">       5617</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1540,19 +1540,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.13                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-13</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">       1634</t>
+          <t xml:space="preserve">       5618</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1587,19 +1587,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.13                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-13</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">       1674</t>
+          <t xml:space="preserve">       5669</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1634,19 +1634,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.14                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-14</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">       1675</t>
+          <t xml:space="preserve">       5670</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1681,19 +1681,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-14</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">       1553</t>
+          <t xml:space="preserve">       5710</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1728,19 +1728,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.13                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-13</t>
+          <t xml:space="preserve">      2021-02-28</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">       1554</t>
+          <t xml:space="preserve">       5711</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1775,19 +1775,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.13                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.28                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-13</t>
+          <t xml:space="preserve">      2021-02-28</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">       1741</t>
+          <t xml:space="preserve">       2782</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.14                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.16                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-14</t>
+          <t xml:space="preserve">      2021-02-16</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">       1742</t>
+          <t xml:space="preserve">       2783</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1869,19 +1869,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.16                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-14</t>
+          <t xml:space="preserve">      2021-02-16</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">       1849</t>
+          <t xml:space="preserve">       2901</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1916,19 +1916,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.15                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.16                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-15</t>
+          <t xml:space="preserve">      2021-02-16</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">       1850</t>
+          <t xml:space="preserve">       2902</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1963,19 +1963,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.15                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.16                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-15</t>
+          <t xml:space="preserve">      2021-02-16</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3537</t>
+          <t xml:space="preserve">       2981</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2010,19 +2010,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.17                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-17</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3538</t>
+          <t xml:space="preserve">       2982</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2057,19 +2057,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-17</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3405</t>
+          <t xml:space="preserve">       3113</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2104,19 +2104,19 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.17                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-17</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3406</t>
+          <t xml:space="preserve">       3114</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2151,19 +2151,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-17</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3617</t>
+          <t xml:space="preserve">       3193</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2198,19 +2198,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.18                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-18</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3618</t>
+          <t xml:space="preserve">       3194</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2245,19 +2245,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-18</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3749</t>
+          <t xml:space="preserve">       3325</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2292,19 +2292,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.18                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-18</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3750</t>
+          <t xml:space="preserve">       3326</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2339,19 +2339,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-18</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3961</t>
+          <t xml:space="preserve">       1512</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2386,19 +2386,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.12                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-12</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3962</t>
+          <t xml:space="preserve">       1513</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2433,19 +2433,19 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.12                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-12</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3829</t>
+          <t xml:space="preserve">       1633</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2480,19 +2480,19 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.13                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-13</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">       3830</t>
+          <t xml:space="preserve">       1634</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2527,19 +2527,19 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.13                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-13</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">       4041</t>
+          <t xml:space="preserve">       1674</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2574,19 +2574,19 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.14                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-14</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">       4042</t>
+          <t xml:space="preserve">       1675</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-14</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">       4173</t>
+          <t xml:space="preserve">       1553</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2668,19 +2668,19 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.13                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-13</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">       4174</t>
+          <t xml:space="preserve">       1554</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2715,19 +2715,19 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.13                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-13</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5294</t>
+          <t xml:space="preserve">       1741</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2762,64 +2762,1004 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.23                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.14                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-23</t>
+          <t xml:space="preserve">      2021-02-14</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t xml:space="preserve">       1742</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1849</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.15                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1850</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.15                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3537</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3538</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3405</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3406</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3617</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3618</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3749</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3750</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3961</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3962</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3829</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3830</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4041</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4042</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4173</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4174</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5294</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.23                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
           <t xml:space="preserve">       5295</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         NULL</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t xml:space="preserve">No PL global price change data for the report date: 2021.02.23                                                                                                                                                                                                  </t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t xml:space="preserve">      2021-02-23</t>
         </is>
       </c>
     </row>
-    <row r="52"/>
-    <row r="53"/>
+    <row r="72"/>
+    <row r="73"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
